--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3795.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3795.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.010809123049009</v>
+        <v>0.9737015962600708</v>
       </c>
       <c r="B1">
-        <v>2.214348107505235</v>
+        <v>7.093147754669189</v>
       </c>
       <c r="C1">
-        <v>2.372625050062356</v>
+        <v>3.058813810348511</v>
       </c>
       <c r="D1">
-        <v>3.303573873931661</v>
+        <v>1.981501936912537</v>
       </c>
       <c r="E1">
-        <v>2.628168774781792</v>
+        <v>1.772764325141907</v>
       </c>
     </row>
   </sheetData>
